--- a/data/13/hdirect_output.xlsx
+++ b/data/13/hdirect_output.xlsx
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>4887586.699027343</v>
+        <v>4885550.244266567</v>
       </c>
     </row>
     <row r="3">
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>7989607.929297181</v>
+        <v>7930777.231349055</v>
       </c>
     </row>
     <row r="4">
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>4482791.479553764</v>
+        <v>4460903.702409236</v>
       </c>
     </row>
     <row r="5">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>3628727.835862921</v>
+        <v>3633352.700177425</v>
       </c>
     </row>
     <row r="6">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>7989607.929297181</v>
+        <v>7930777.231349055</v>
       </c>
     </row>
     <row r="7">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>3628727.835862921</v>
+        <v>3633352.700177425</v>
       </c>
     </row>
     <row r="8">
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>3628727.835862921</v>
+        <v>3633352.700177425</v>
       </c>
     </row>
     <row r="9">
@@ -831,46 +831,46 @@
         <v>43983.625</v>
       </c>
       <c r="B9" t="n">
-        <v>100012</v>
+        <v>100837</v>
       </c>
       <c r="C9" t="n">
-        <v>200016</v>
+        <v>202459</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>AAC 삼채포기김치 10kg</t>
+          <t>CRP-P0610FD 쿠쿠전기밥솥 6인용(QS) 2020</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>농수축</t>
+          <t>주방</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>40900</v>
+        <v>208000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>김치</t>
+          <t>밥솥</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>포기김치</t>
+          <t>전기밥솥</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>김치</t>
+          <t>주방가전</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>식품</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>3857806.752072952</v>
+        <v>12137694.32399201</v>
       </c>
     </row>
     <row r="10">
@@ -878,46 +878,46 @@
         <v>43983.66666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>100080</v>
+        <v>100167</v>
       </c>
       <c r="C10" t="n">
-        <v>200217</v>
+        <v>200588</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>아키 라이크라 릴렉스 보정브라 패키지(뉴아키28차)</t>
+          <t>유귀열의 귀한 갓김치 5kg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>속옷</t>
+          <t>농수축</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>99900</v>
+        <v>30900</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>브라</t>
+          <t>김치</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>보정속옷</t>
+          <t>갓김치</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>여성언더웨어/잠옷</t>
+          <t>김치</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>패션의류</t>
+          <t>식품</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>3857806.752072952</v>
+        <v>8154636.551411313</v>
       </c>
     </row>
     <row r="11">
@@ -925,46 +925,46 @@
         <v>43983.70833333334</v>
       </c>
       <c r="B11" t="n">
-        <v>100650</v>
+        <v>100068</v>
       </c>
       <c r="C11" t="n">
-        <v>201971</v>
+        <v>200179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>잭필드 남성  반팔셔츠 4종</t>
+          <t>캐리어 벽걸이 에어컨 11형 ARC11VBC</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>의류</t>
+          <t>가전</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>59800</v>
+        <v>899000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>셔츠</t>
+          <t>벽걸이에어컨</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>티셔츠</t>
+          <t>에어컨</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>남성의류</t>
+          <t>계절가전</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>패션의류</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>16868691.33232596</v>
+        <v>11390165.59013832</v>
       </c>
     </row>
     <row r="12">
@@ -972,46 +972,46 @@
         <v>43983.75</v>
       </c>
       <c r="B12" t="n">
-        <v>100837</v>
+        <v>100362</v>
       </c>
       <c r="C12" t="n">
-        <v>202459</v>
+        <v>201150</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CRP-P0610FD 쿠쿠전기밥솥 6인용(QS) 2020</t>
+          <t>에이유플러스 슈퍼선스틱 1004(최저가)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>주방</t>
+          <t>이미용</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>208000</v>
+        <v>39900</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>밥솥</t>
+          <t>선스틱</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>전기밥솥</t>
+          <t>선스틱</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>주방가전</t>
+          <t>선케어</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>디지털/가전</t>
+          <t>화장품/미용</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>11398952.00370321</v>
+        <v>18545036.59089291</v>
       </c>
     </row>
     <row r="13">
@@ -1019,46 +1019,46 @@
         <v>43983.79166666666</v>
       </c>
       <c r="B13" t="n">
-        <v>100195</v>
+        <v>100638</v>
       </c>
       <c r="C13" t="n">
-        <v>200651</v>
+        <v>201956</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>레이프릴 데일리 코튼 보정팬티 12종</t>
+          <t>램프쿡 자동회전냄비</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>속옷</t>
+          <t>주방</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>39900</v>
+        <v>109000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>팬티</t>
+          <t>냄비</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>보정속옷</t>
+          <t>냄비/솥</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>여성언더웨어/잠옷</t>
+          <t>주방용품</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>패션의류</t>
+          <t>생활/건강</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>4482791.479553764</v>
+        <v>17694791.09084591</v>
       </c>
     </row>
     <row r="14">
@@ -1066,46 +1066,46 @@
         <v>43983.83333333334</v>
       </c>
       <c r="B14" t="n">
-        <v>100167</v>
+        <v>100195</v>
       </c>
       <c r="C14" t="n">
-        <v>200588</v>
+        <v>200651</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>유귀열의 귀한 갓김치 5kg</t>
+          <t>레이프릴 데일리 코튼 보정팬티 12종</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>농수축</t>
+          <t>속옷</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>30900</v>
+        <v>39900</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>김치</t>
+          <t>팬티</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>갓김치</t>
+          <t>보정속옷</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>김치</t>
+          <t>여성언더웨어/잠옷</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>식품</t>
+          <t>패션의류</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>8244294.173224337</v>
+        <v>4460903.702409236</v>
       </c>
     </row>
     <row r="15">
@@ -1113,46 +1113,46 @@
         <v>43983.875</v>
       </c>
       <c r="B15" t="n">
-        <v>100322</v>
+        <v>100526</v>
       </c>
       <c r="C15" t="n">
-        <v>201024</v>
+        <v>201596</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>피시원 국내산 손질 갑오징어 9팩</t>
+          <t>소노비 줄리엣 소가죽 토트백 1종+투숄더 버킷백 1종</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>농수축</t>
+          <t>잡화</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>49900</v>
+        <v>119000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>오징어</t>
+          <t>토트백</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>해산물/어패류</t>
+          <t>토트백</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>수산</t>
+          <t>여성가방</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>식품</t>
+          <t>패션잡화</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>11374319.26409003</v>
+        <v>21449075.4510777</v>
       </c>
     </row>
     <row r="16">
@@ -1160,46 +1160,46 @@
         <v>43983.91666666666</v>
       </c>
       <c r="B16" t="n">
-        <v>100068</v>
+        <v>100197</v>
       </c>
       <c r="C16" t="n">
-        <v>200179</v>
+        <v>200668</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>캐리어 벽걸이 에어컨 11형 ARC11VBC</t>
+          <t>오델로 여성 모자 3종</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>가전</t>
+          <t>잡화</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>899000</v>
+        <v>29900</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>벽걸이에어컨</t>
+          <t>모자</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>에어컨</t>
+          <t>사파리모자</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>계절가전</t>
+          <t>모자</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>디지털/가전</t>
+          <t>패션잡화</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>11316616.26272819</v>
+        <v>21449075.4510777</v>
       </c>
     </row>
     <row r="17">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>6139188.009263638</v>
+        <v>6141521.035449884</v>
       </c>
     </row>
     <row r="18">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>6139188.009263638</v>
+        <v>6141521.035449884</v>
       </c>
     </row>
     <row r="19">
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>6139188.009263638</v>
+        <v>6141521.035449884</v>
       </c>
     </row>
     <row r="20">
@@ -1348,46 +1348,46 @@
         <v>43984.29166666666</v>
       </c>
       <c r="B20" t="n">
-        <v>100362</v>
+        <v>100575</v>
       </c>
       <c r="C20" t="n">
-        <v>201150</v>
+        <v>201697</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>에이유플러스 슈퍼선스틱 1004(최저가)</t>
+          <t>무이자 삼성 UHDTV 55형 KU55UT7000FXKR+사운드바HW-T450</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>이미용</t>
+          <t>가전</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>39900</v>
+        <v>1170000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>선스틱</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>선스틱</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>선케어</t>
+          <t>영상가전</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>화장품/미용</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>18689817.59379827</v>
+        <v>21449075.4510777</v>
       </c>
     </row>
     <row r="21">
@@ -1395,46 +1395,46 @@
         <v>43984.33333333334</v>
       </c>
       <c r="B21" t="n">
-        <v>100638</v>
+        <v>100332</v>
       </c>
       <c r="C21" t="n">
-        <v>201956</v>
+        <v>201041</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>램프쿡 자동회전냄비</t>
+          <t>실크테라피 오리지널 에센스 패키지</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>주방</t>
+          <t>이미용</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>109000</v>
+        <v>49900</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>냄비</t>
+          <t>헤어에센스</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>냄비/솥</t>
+          <t>에센스</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>주방용품</t>
+          <t>스킨케어</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>생활/건강</t>
+          <t>화장품/미용</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>18217394.27494415</v>
+        <v>21449075.4510777</v>
       </c>
     </row>
     <row r="22">
@@ -1442,46 +1442,46 @@
         <v>43984.375</v>
       </c>
       <c r="B22" t="n">
-        <v>100575</v>
+        <v>100728</v>
       </c>
       <c r="C22" t="n">
-        <v>201697</v>
+        <v>202125</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>무이자 삼성 UHDTV 55형 KU55UT7000FXKR+사운드바HW-T450</t>
+          <t>자연감성 풍기인견 여성란쥬세트</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>가전</t>
+          <t>속옷</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1170000</v>
+        <v>59900</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>이너웨어</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>보정속옷</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>영상가전</t>
+          <t>여성언더웨어/잠옷</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>디지털/가전</t>
+          <t>패션의류</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>19370931.81609407</v>
+        <v>13601069.6186838</v>
       </c>
     </row>
     <row r="23">
@@ -1489,46 +1489,46 @@
         <v>43984.41666666666</v>
       </c>
       <c r="B23" t="n">
-        <v>100332</v>
+        <v>100479</v>
       </c>
       <c r="C23" t="n">
-        <v>201041</v>
+        <v>201454</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>실크테라피 오리지널 에센스 패키지</t>
+          <t>라라쎄 쉬폰 롤업재킷 1종</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>이미용</t>
+          <t>의류</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>49900</v>
+        <v>39800</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>헤어에센스</t>
+          <t>자켓</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>에센스</t>
+          <t>재킷</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>스킨케어</t>
+          <t>여성의류</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>화장품/미용</t>
+          <t>패션의류</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>19370931.81609407</v>
+        <v>18545036.59089291</v>
       </c>
     </row>
     <row r="24">
@@ -1536,46 +1536,46 @@
         <v>43984.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>100728</v>
+        <v>100150</v>
       </c>
       <c r="C24" t="n">
-        <v>202125</v>
+        <v>200424</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>자연감성 풍기인견 여성란쥬세트</t>
+          <t>LG전자 통돌이 세탁기 TR14WK1(화이트)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>속옷</t>
+          <t>가전</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>59900</v>
+        <v>499900</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>이너웨어</t>
+          <t>세탁기</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>보정속옷</t>
+          <t>세탁기</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>여성언더웨어/잠옷</t>
+          <t>생활가전</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>패션의류</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>13459071.72301405</v>
+        <v>4460903.702409236</v>
       </c>
     </row>
     <row r="25">
@@ -1583,46 +1583,46 @@
         <v>43984.5</v>
       </c>
       <c r="B25" t="n">
-        <v>100479</v>
+        <v>100327</v>
       </c>
       <c r="C25" t="n">
-        <v>201454</v>
+        <v>201033</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>라라쎄 쉬폰 롤업재킷 1종</t>
+          <t>[VONIN]보닌 남성기초세트(워터로션)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>의류</t>
+          <t>이미용</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>39800</v>
+        <v>54000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>자켓</t>
+          <t>남성기초</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>재킷</t>
+          <t>남성화장품세트</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>여성의류</t>
+          <t>남성화장품</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>패션의류</t>
+          <t>화장품/미용</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>18689817.59379827</v>
+        <v>3633352.700177425</v>
       </c>
     </row>
     <row r="26">
@@ -1630,46 +1630,46 @@
         <v>43984.54166666666</v>
       </c>
       <c r="B26" t="n">
-        <v>100630</v>
+        <v>100773</v>
       </c>
       <c r="C26" t="n">
-        <v>201938</v>
+        <v>202259</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>오렐리안 풍기인견 브라탑패키지</t>
+          <t>엘렌실라 그린 에너지 썬스틱(6+박스마스크)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>속옷</t>
+          <t>이미용</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>69900</v>
+        <v>39900</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>브라</t>
+          <t>선스틱</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>보정속옷</t>
+          <t>선스틱</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>여성언더웨어/잠옷</t>
+          <t>선케어</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>패션의류</t>
+          <t>화장품/미용</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>14278968.01554248</v>
+        <v>7930777.231349055</v>
       </c>
     </row>
     <row r="27">
@@ -1677,46 +1677,46 @@
         <v>43984.58333333334</v>
       </c>
       <c r="B27" t="n">
-        <v>100773</v>
+        <v>100841</v>
       </c>
       <c r="C27" t="n">
-        <v>202259</v>
+        <v>202484</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>엘렌실라 그린 에너지 썬스틱(6+박스마스크)</t>
+          <t>옛날 그 쥐포 110장 (11팩)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>이미용</t>
+          <t>농수축</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>39900</v>
+        <v>32900</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>선스틱</t>
+          <t>쥐포</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>선스틱</t>
+          <t>건어물</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>선케어</t>
+          <t>수산</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>화장품/미용</t>
+          <t>식품</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>7989607.929297181</v>
+        <v>4460903.702409236</v>
       </c>
     </row>
     <row r="28">
@@ -1724,14 +1724,14 @@
         <v>43984.66666666666</v>
       </c>
       <c r="B28" t="n">
-        <v>100841</v>
+        <v>100012</v>
       </c>
       <c r="C28" t="n">
-        <v>202484</v>
+        <v>200020</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>옛날 그 쥐포 110장 (11팩)</t>
+          <t>AAC의 별미김치 3종(v2)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1740,21 +1740,21 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>32900</v>
+        <v>29900</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>쥐포</t>
+          <t>김치</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>건어물</t>
+          <t>갓김치</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>수산</t>
+          <t>김치</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>4482791.479553764</v>
+        <v>4460903.702409236</v>
       </c>
     </row>
     <row r="29">
@@ -1771,46 +1771,46 @@
         <v>43984.70833333334</v>
       </c>
       <c r="B29" t="n">
-        <v>100012</v>
+        <v>100287</v>
       </c>
       <c r="C29" t="n">
-        <v>200020</v>
+        <v>200917</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>AAC의 별미김치 3종(v2)</t>
+          <t>실크트리 풍기인견 쿨란쥬 패키지</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>농수축</t>
+          <t>속옷</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>29900</v>
+        <v>59900</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>김치</t>
+          <t>이너웨어</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>갓김치</t>
+          <t>보정속옷</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>김치</t>
+          <t>여성언더웨어/잠옷</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>식품</t>
+          <t>패션의류</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>4482791.479553764</v>
+        <v>12403519.97723914</v>
       </c>
     </row>
     <row r="30">
@@ -1818,37 +1818,37 @@
         <v>43984.75</v>
       </c>
       <c r="B30" t="n">
-        <v>100150</v>
+        <v>100097</v>
       </c>
       <c r="C30" t="n">
-        <v>200424</v>
+        <v>200266</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LG전자 통돌이 세탁기 TR14WK1(화이트)</t>
+          <t>무이자 올리고 가스와이드그릴레인지 프리미엄형 +버팔로 캠핑쿨러백</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>가전</t>
+          <t>주방</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>499900</v>
+        <v>129000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>세탁기</t>
+          <t>그릴</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>세탁기</t>
+          <t>가스레인지</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>생활가전</t>
+          <t>주방가전</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>4482791.479553764</v>
+        <v>10242751.84576735</v>
       </c>
     </row>
     <row r="31">
@@ -1865,37 +1865,37 @@
         <v>43984.79166666666</v>
       </c>
       <c r="B31" t="n">
-        <v>100287</v>
+        <v>100353</v>
       </c>
       <c r="C31" t="n">
-        <v>200917</v>
+        <v>201130</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>실크트리 풍기인견 쿨란쥬 패키지</t>
+          <t>마르엘라로사티 린넨 베스트 세트[3월]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>속옷</t>
+          <t>의류</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>59900</v>
+        <v>39900</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>이너웨어</t>
+          <t>베스트</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>보정속옷</t>
+          <t>조끼</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>여성언더웨어/잠옷</t>
+          <t>여성의류</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1904,7 +1904,7 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>11855894.48265181</v>
+        <v>13497109.69355115</v>
       </c>
     </row>
     <row r="32">
@@ -1912,14 +1912,14 @@
         <v>43984.83333333334</v>
       </c>
       <c r="B32" t="n">
-        <v>100275</v>
+        <v>100445</v>
       </c>
       <c r="C32" t="n">
-        <v>200900</v>
+        <v>202278</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>몬테밀라노 썸머 프린팅 원피스 4종</t>
+          <t>쿠미투니카 쿨 레이시 란쥬쉐이퍼&amp;팬티</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1928,21 +1928,21 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>79900</v>
+        <v>69900</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>이너웨어</t>
+          <t>팬티</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>원피스</t>
+          <t>보정속옷</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>여성의류</t>
+          <t>여성언더웨어/잠옷</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1951,7 +1951,7 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>10472886.92609781</v>
+        <v>21478499.36815481</v>
       </c>
     </row>
     <row r="33">
@@ -1998,7 +1998,7 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>12524426.19534631</v>
+        <v>13088365.98579193</v>
       </c>
     </row>
     <row r="34">
@@ -2006,14 +2006,14 @@
         <v>43984.91666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>100097</v>
+        <v>100804</v>
       </c>
       <c r="C34" t="n">
-        <v>200266</v>
+        <v>202368</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>무이자 올리고 가스와이드그릴레인지 프리미엄형 +버팔로 캠핑쿨러백</t>
+          <t>에버홈 글라스텐 다지기</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2022,16 +2022,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>129000</v>
+        <v>59800</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>그릴</t>
+          <t>믹서기</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>가스레인지</t>
+          <t>분쇄기</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>10435017.39010743</v>
+        <v>12560952.72119843</v>
       </c>
     </row>
     <row r="35">
@@ -2053,46 +2053,46 @@
         <v>43984.95833333334</v>
       </c>
       <c r="B35" t="n">
-        <v>100648</v>
+        <v>100800</v>
       </c>
       <c r="C35" t="n">
-        <v>201969</v>
+        <v>202364</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>마르조 로아벨 시어서커원피스 3종</t>
+          <t>[바다먹자] 국내산 반건조 오징어 7팩 (14미)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>의류</t>
+          <t>농수축</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>59800</v>
+        <v>39900</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>원피스</t>
+          <t>오징어</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>원피스</t>
+          <t>건어물</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>여성의류</t>
+          <t>수산</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>패션의류</t>
+          <t>식품</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>18873528.20483951</v>
+        <v>12403519.97723914</v>
       </c>
     </row>
     <row r="36">
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>3933971.431901847</v>
+        <v>3947175.869566873</v>
       </c>
     </row>
     <row r="37">
@@ -2147,46 +2147,46 @@
         <v>43985.25</v>
       </c>
       <c r="B37" t="n">
-        <v>100116</v>
+        <v>100262</v>
       </c>
       <c r="C37" t="n">
-        <v>200316</v>
+        <v>200876</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>*[맥널티] 싱글 오리진 핸드드립 커피 5종 10박스 + 커피포트 1개</t>
+          <t>더블모 어성초 샴푸</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>농수축</t>
+          <t>이미용</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>39900</v>
+        <v>59800</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>두유</t>
+          <t>샴푸</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>두유</t>
+          <t>샴푸</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>가공식품</t>
+          <t>헤어케어</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>식품</t>
+          <t>화장품/미용</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>4786664.151811527</v>
+        <v>13497109.69355115</v>
       </c>
     </row>
     <row r="38">
@@ -2194,46 +2194,46 @@
         <v>43985.29166666666</v>
       </c>
       <c r="B38" t="n">
-        <v>100647</v>
+        <v>100116</v>
       </c>
       <c r="C38" t="n">
-        <v>201968</v>
+        <v>200316</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>로질리 도로시 원피스 3종</t>
+          <t>*[맥널티] 싱글 오리진 핸드드립 커피 5종 10박스 + 커피포트 1개</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>의류</t>
+          <t>농수축</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>39800</v>
+        <v>39900</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>원피스</t>
+          <t>두유</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>원피스</t>
+          <t>두유</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>여성의류</t>
+          <t>가공식품</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>패션의류</t>
+          <t>식품</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>12524426.19534631</v>
+        <v>4813530.6112333</v>
       </c>
     </row>
     <row r="39">
@@ -2241,46 +2241,46 @@
         <v>43985.33333333334</v>
       </c>
       <c r="B39" t="n">
-        <v>100526</v>
+        <v>100647</v>
       </c>
       <c r="C39" t="n">
-        <v>201596</v>
+        <v>201968</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>소노비 줄리엣 소가죽 토트백 1종+투숄더 버킷백 1종</t>
+          <t>로질리 도로시 원피스 3종</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>잡화</t>
+          <t>의류</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>119000</v>
+        <v>39800</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>토트백</t>
+          <t>원피스</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>토트백</t>
+          <t>원피스</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>여성가방</t>
+          <t>여성의류</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>패션의류</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>19370931.81609407</v>
+        <v>13088365.98579193</v>
       </c>
     </row>
     <row r="40">
@@ -2288,46 +2288,46 @@
         <v>43985.375</v>
       </c>
       <c r="B40" t="n">
-        <v>100197</v>
+        <v>100275</v>
       </c>
       <c r="C40" t="n">
-        <v>200668</v>
+        <v>200900</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>오델로 여성 모자 3종</t>
+          <t>몬테밀라노 썸머 프린팅 원피스 4종</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>잡화</t>
+          <t>속옷</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>29900</v>
+        <v>79900</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>모자</t>
+          <t>이너웨어</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>사파리모자</t>
+          <t>원피스</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>모자</t>
+          <t>여성의류</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>패션의류</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>19370931.81609407</v>
+        <v>10242751.84576735</v>
       </c>
     </row>
     <row r="41">
@@ -2335,46 +2335,46 @@
         <v>43985.41666666666</v>
       </c>
       <c r="B41" t="n">
-        <v>100804</v>
+        <v>100599</v>
       </c>
       <c r="C41" t="n">
-        <v>202368</v>
+        <v>201882</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>에버홈 글라스텐 다지기</t>
+          <t>푸마 순면 100% 언더셔츠 7종 데일리 패키지(2차)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>주방</t>
+          <t>속옷</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>59800</v>
+        <v>79000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>믹서기</t>
+          <t>이너웨어</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>분쇄기</t>
+          <t>등산의류</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>주방가전</t>
+          <t>등산</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>디지털/가전</t>
+          <t>스포츠/레저</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>12324250.34105978</v>
+        <v>10242751.84576735</v>
       </c>
     </row>
     <row r="42">
@@ -2382,46 +2382,46 @@
         <v>43985.45833333334</v>
       </c>
       <c r="B42" t="n">
-        <v>100137</v>
+        <v>100362</v>
       </c>
       <c r="C42" t="n">
-        <v>200368</v>
+        <v>201150</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1+1세트 보국 왕팬 윈큘레이터 BKF-0F435</t>
+          <t>에이유플러스 슈퍼선스틱 1004(최저가)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>생활용품</t>
+          <t>이미용</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>108000</v>
+        <v>39900</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>선풍기</t>
+          <t>선스틱</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>공기정화기</t>
+          <t>선스틱</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>계절가전</t>
+          <t>선케어</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>디지털/가전</t>
+          <t>화장품/미용</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>11791580.22555433</v>
+        <v>3633352.700177425</v>
       </c>
     </row>
     <row r="43">
@@ -2429,46 +2429,46 @@
         <v>43985.5</v>
       </c>
       <c r="B43" t="n">
-        <v>100362</v>
+        <v>100186</v>
       </c>
       <c r="C43" t="n">
-        <v>201150</v>
+        <v>200621</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>에이유플러스 슈퍼선스틱 1004(최저가)</t>
+          <t>기라로쉬 멀티 클립온 선글라스</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>이미용</t>
+          <t>잡화</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>39900</v>
+        <v>49000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>선스틱</t>
+          <t>선글라스</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>선스틱</t>
+          <t>선글라스</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>선케어</t>
+          <t>선글라스/안경테</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>화장품/미용</t>
+          <t>패션잡화</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>3628727.835862921</v>
+        <v>3633352.700177425</v>
       </c>
     </row>
     <row r="44">
@@ -2476,46 +2476,46 @@
         <v>43985.58333333334</v>
       </c>
       <c r="B44" t="n">
-        <v>100186</v>
+        <v>100648</v>
       </c>
       <c r="C44" t="n">
-        <v>200621</v>
+        <v>201969</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>기라로쉬 멀티 클립온 선글라스</t>
+          <t>마르조 로아벨 시어서커원피스 3종</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>잡화</t>
+          <t>의류</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>49000</v>
+        <v>59800</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>선글라스</t>
+          <t>원피스</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>선글라스</t>
+          <t>원피스</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>선글라스/안경테</t>
+          <t>여성의류</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>패션의류</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>3662899.061782759</v>
+        <v>20130055.61398912</v>
       </c>
     </row>
     <row r="45">
@@ -2523,32 +2523,32 @@
         <v>43985.625</v>
       </c>
       <c r="B45" t="n">
-        <v>100068</v>
+        <v>100137</v>
       </c>
       <c r="C45" t="n">
-        <v>200179</v>
+        <v>200368</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>캐리어 벽걸이 에어컨 11형 ARC11VBC</t>
+          <t>1+1세트 보국 왕팬 윈큘레이터 BKF-0F435</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>가전</t>
+          <t>생활용품</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>899000</v>
+        <v>108000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>벽걸이에어컨</t>
+          <t>선풍기</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>에어컨</t>
+          <t>공기정화기</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>8244294.173224337</v>
+        <v>12403519.97723914</v>
       </c>
     </row>
     <row r="46">
@@ -2570,14 +2570,14 @@
         <v>43985.66666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>100599</v>
+        <v>100630</v>
       </c>
       <c r="C46" t="n">
-        <v>201882</v>
+        <v>201938</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>푸마 순면 100% 언더셔츠 7종 데일리 패키지(2차)</t>
+          <t>오렐리안 풍기인견 브라탑패키지</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2586,30 +2586,30 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>79000</v>
+        <v>69900</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>이너웨어</t>
+          <t>브라</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>등산의류</t>
+          <t>보정속옷</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>등산</t>
+          <t>여성언더웨어/잠옷</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>스포츠/레저</t>
+          <t>패션의류</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>10438593.22627454</v>
+        <v>14562330.07646497</v>
       </c>
     </row>
     <row r="47">
@@ -2617,46 +2617,46 @@
         <v>43985.70833333334</v>
       </c>
       <c r="B47" t="n">
-        <v>100425</v>
+        <v>100647</v>
       </c>
       <c r="C47" t="n">
-        <v>201334</v>
+        <v>201968</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>프리모 3단 폴딩선반</t>
+          <t>로질리 도로시 원피스 3종</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>생활용품</t>
+          <t>의류</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>69000</v>
+        <v>39800</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>접이식테이블</t>
+          <t>원피스</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>선반/진열대</t>
+          <t>원피스</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>수납/정리용품</t>
+          <t>여성의류</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>생활/건강</t>
+          <t>패션의류</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>8244294.173224337</v>
+        <v>12403519.97723914</v>
       </c>
     </row>
     <row r="48">
@@ -2703,7 +2703,7 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>3968142.657821686</v>
+        <v>3947175.869566873</v>
       </c>
     </row>
     <row r="49">
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>6316311.196382454</v>
+        <v>6558526.04515132</v>
       </c>
     </row>
     <row r="50">
@@ -2758,46 +2758,46 @@
         <v>43985.875</v>
       </c>
       <c r="B50" t="n">
-        <v>100647</v>
+        <v>100765</v>
       </c>
       <c r="C50" t="n">
-        <v>201968</v>
+        <v>202224</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>로질리 도로시 원피스 3종</t>
+          <t>린나이 엣지 가스레인지 2구 (압력솥)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>의류</t>
+          <t>주방</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>39800</v>
+        <v>219000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>원피스</t>
+          <t>밥솥</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>원피스</t>
+          <t>가스레인지</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>여성의류</t>
+          <t>주방가전</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>패션의류</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="K50" t="n">
-        <v>11791580.22555433</v>
+        <v>20130055.61398912</v>
       </c>
     </row>
     <row r="51">
@@ -2805,46 +2805,46 @@
         <v>43985.91666666666</v>
       </c>
       <c r="B51" t="n">
-        <v>100785</v>
+        <v>100108</v>
       </c>
       <c r="C51" t="n">
-        <v>202296</v>
+        <v>200300</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>전철우냉면25인분</t>
+          <t>르까프 여성 썸머 쿨카라 티셔츠 5종</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>농수축</t>
+          <t>의류</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>40900</v>
+        <v>29900</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>도가니탕</t>
+          <t>티셔츠</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>면류</t>
+          <t>등산의류</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>가공식품</t>
+          <t>등산</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>식품</t>
+          <t>스포츠/레저</t>
         </is>
       </c>
       <c r="K51" t="n">
-        <v>6316311.196382454</v>
+        <v>3947175.869566873</v>
       </c>
     </row>
     <row r="52">
@@ -2852,46 +2852,46 @@
         <v>43985.95833333334</v>
       </c>
       <c r="B52" t="n">
-        <v>100765</v>
+        <v>100767</v>
       </c>
       <c r="C52" t="n">
-        <v>202224</v>
+        <v>202246</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>린나이 엣지 가스레인지 2구 (압력솥)</t>
+          <t>팽현숙 맛있는 옛날 포기김치 10kg+열무김치 1kg+깍두기 1kg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>주방</t>
+          <t>농수축</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>219000</v>
+        <v>45900</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>밥솥</t>
+          <t>김치</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>가스레인지</t>
+          <t>포기김치</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>주방가전</t>
+          <t>김치</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>디지털/가전</t>
+          <t>식품</t>
         </is>
       </c>
       <c r="K52" t="n">
-        <v>18873528.20483951</v>
+        <v>12560952.72119843</v>
       </c>
     </row>
     <row r="53">
@@ -2899,46 +2899,46 @@
         <v>43986</v>
       </c>
       <c r="B53" t="n">
-        <v>100077</v>
+        <v>100785</v>
       </c>
       <c r="C53" t="n">
-        <v>200212</v>
+        <v>202296</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>발레리 라이크라 쉐이핑 팬티 10+2종 패키지(19차)</t>
+          <t>전철우냉면25인분</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>속옷</t>
+          <t>농수축</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>49900</v>
+        <v>40900</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>팬티</t>
+          <t>도가니탕</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>팬티</t>
+          <t>면류</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>여성언더웨어/잠옷</t>
+          <t>가공식품</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>패션의류</t>
+          <t>식품</t>
         </is>
       </c>
       <c r="K53" t="n">
-        <v>3933971.431901847</v>
+        <v>6558526.04515132</v>
       </c>
     </row>
     <row r="54">
@@ -2946,46 +2946,46 @@
         <v>43986.04166666666</v>
       </c>
       <c r="B54" t="n">
-        <v>100330</v>
+        <v>100068</v>
       </c>
       <c r="C54" t="n">
-        <v>201036</v>
+        <v>200179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LG생활건강 샤프란아우라 고농축 섬유유연제</t>
+          <t>캐리어 벽걸이 에어컨 11형 ARC11VBC</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>생활용품</t>
+          <t>가전</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>30900</v>
+        <v>899000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>섬유유연제</t>
+          <t>벽걸이에어컨</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>섬유유연제</t>
+          <t>에어컨</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>생활용품</t>
+          <t>계절가전</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>생활/건강</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="K54" t="n">
-        <v>3933971.431901847</v>
+        <v>8154636.551411313</v>
       </c>
     </row>
     <row r="55">
@@ -2993,46 +2993,46 @@
         <v>43986.25</v>
       </c>
       <c r="B55" t="n">
-        <v>100259</v>
+        <v>100525</v>
       </c>
       <c r="C55" t="n">
-        <v>200873</v>
+        <v>201595</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>블링썸 듀얼 포시즌 틴트브로우</t>
+          <t>예작 남성 썸머셔츠 3종</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>이미용</t>
+          <t>의류</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>49900</v>
+        <v>119000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>립스틱</t>
+          <t>셔츠</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>아이브로</t>
+          <t>셔츠/남방</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>색조메이크업</t>
+          <t>남성의류</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>화장품/미용</t>
+          <t>패션의류</t>
         </is>
       </c>
       <c r="K55" t="n">
-        <v>4042311.717220909</v>
+        <v>3947175.869566873</v>
       </c>
     </row>
     <row r="56">
@@ -3040,46 +3040,46 @@
         <v>43986.29166666666</v>
       </c>
       <c r="B56" t="n">
-        <v>100445</v>
+        <v>100425</v>
       </c>
       <c r="C56" t="n">
-        <v>202278</v>
+        <v>201334</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>쿠미투니카 쿨 레이시 란쥬쉐이퍼&amp;팬티</t>
+          <t>프리모 3단 폴딩선반</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>속옷</t>
+          <t>생활용품</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>69900</v>
+        <v>69000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>팬티</t>
+          <t>접이식테이블</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>보정속옷</t>
+          <t>선반/진열대</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>여성언더웨어/잠옷</t>
+          <t>수납/정리용품</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>패션의류</t>
+          <t>생활/건강</t>
         </is>
       </c>
       <c r="K56" t="n">
-        <v>21524333.80353868</v>
+        <v>8154636.551411313</v>
       </c>
     </row>
     <row r="57">
@@ -3126,7 +3126,7 @@
         </is>
       </c>
       <c r="K57" t="n">
-        <v>8244294.173224337</v>
+        <v>8154636.551411313</v>
       </c>
     </row>
     <row r="58">
@@ -3134,46 +3134,46 @@
         <v>43986.375</v>
       </c>
       <c r="B58" t="n">
-        <v>100525</v>
+        <v>100639</v>
       </c>
       <c r="C58" t="n">
-        <v>201595</v>
+        <v>201957</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>예작 남성 썸머셔츠 3종</t>
+          <t>완도특大활전복 16~18미</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>의류</t>
+          <t>농수축</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>119000</v>
+        <v>59900</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>셔츠</t>
+          <t>전복</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>셔츠/남방</t>
+          <t>해산물/어패류</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>남성의류</t>
+          <t>수산</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>패션의류</t>
+          <t>식품</t>
         </is>
       </c>
       <c r="K58" t="n">
-        <v>3933971.431901847</v>
+        <v>10199780.22339454</v>
       </c>
     </row>
     <row r="59">
@@ -3181,46 +3181,46 @@
         <v>43986.41666666666</v>
       </c>
       <c r="B59" t="n">
-        <v>100301</v>
+        <v>100259</v>
       </c>
       <c r="C59" t="n">
-        <v>200966</v>
+        <v>200873</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>동해안 반건조 가자미 20마리</t>
+          <t>블링썸 듀얼 포시즌 틴트브로우</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>농수축</t>
+          <t>이미용</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>40900</v>
+        <v>49900</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>과메기</t>
+          <t>립스틱</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>건어물</t>
+          <t>아이브로</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>수산</t>
+          <t>색조메이크업</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>식품</t>
+          <t>화장품/미용</t>
         </is>
       </c>
       <c r="K59" t="n">
-        <v>10435017.39010743</v>
+        <v>3947175.869566873</v>
       </c>
     </row>
     <row r="60">
@@ -3228,46 +3228,46 @@
         <v>43986.45833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>100639</v>
+        <v>100077</v>
       </c>
       <c r="C60" t="n">
-        <v>201957</v>
+        <v>200212</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>완도특大활전복 16~18미</t>
+          <t>발레리 라이크라 쉐이핑 팬티 10+2종 패키지(19차)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>농수축</t>
+          <t>속옷</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>59900</v>
+        <v>49900</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>전복</t>
+          <t>팬티</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>해산물/어패류</t>
+          <t>팬티</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>수산</t>
+          <t>여성언더웨어/잠옷</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>식품</t>
+          <t>패션의류</t>
         </is>
       </c>
       <c r="K60" t="n">
-        <v>10369381.03900997</v>
+        <v>3947175.869566873</v>
       </c>
     </row>
     <row r="61">
@@ -3275,46 +3275,46 @@
         <v>43986.5</v>
       </c>
       <c r="B61" t="n">
-        <v>100767</v>
+        <v>100330</v>
       </c>
       <c r="C61" t="n">
-        <v>202246</v>
+        <v>201036</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>팽현숙 맛있는 옛날 포기김치 10kg+열무김치 1kg+깍두기 1kg</t>
+          <t>LG생활건강 샤프란아우라 고농축 섬유유연제</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>농수축</t>
+          <t>생활용품</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>45900</v>
+        <v>30900</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>김치</t>
+          <t>섬유유연제</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>포기김치</t>
+          <t>섬유유연제</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>김치</t>
+          <t>생활용품</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>식품</t>
+          <t>생활/건강</t>
         </is>
       </c>
       <c r="K61" t="n">
-        <v>12324250.34105978</v>
+        <v>3947175.869566873</v>
       </c>
     </row>
     <row r="62">
@@ -3322,46 +3322,46 @@
         <v>43986.54166666666</v>
       </c>
       <c r="B62" t="n">
-        <v>100195</v>
+        <v>100837</v>
       </c>
       <c r="C62" t="n">
-        <v>200651</v>
+        <v>202459</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>레이프릴 데일리 코튼 보정팬티 12종</t>
+          <t>CRP-P0610FD 쿠쿠전기밥솥 6인용(QS) 2020</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>속옷</t>
+          <t>주방</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>39900</v>
+        <v>208000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>팬티</t>
+          <t>밥솥</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>보정속옷</t>
+          <t>전기밥솥</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>여성언더웨어/잠옷</t>
+          <t>주방가전</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>패션의류</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="K62" t="n">
-        <v>6139188.009263638</v>
+        <v>6141521.035449884</v>
       </c>
     </row>
     <row r="63">
@@ -3369,46 +3369,46 @@
         <v>43986.58333333334</v>
       </c>
       <c r="B63" t="n">
-        <v>100416</v>
+        <v>100068</v>
       </c>
       <c r="C63" t="n">
-        <v>201316</v>
+        <v>200187</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>코몽트 남성 반팔 티셔츠 8종(시즌2)</t>
+          <t>캐리어 에어컨 AMC16VA2SAW</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>의류</t>
+          <t>가전</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>39900</v>
+        <v>1899000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>티셔츠</t>
+          <t>벽걸이에어컨</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>티셔츠</t>
+          <t>에어컨</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>남성의류</t>
+          <t>계절가전</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>패션의류</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="K63" t="n">
-        <v>6139188.009263638</v>
+        <v>3633352.700177425</v>
       </c>
     </row>
     <row r="64">
@@ -3416,46 +3416,46 @@
         <v>43986.625</v>
       </c>
       <c r="B64" t="n">
-        <v>100837</v>
+        <v>100195</v>
       </c>
       <c r="C64" t="n">
-        <v>202459</v>
+        <v>200651</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>CRP-P0610FD 쿠쿠전기밥솥 6인용(QS) 2020</t>
+          <t>레이프릴 데일리 코튼 보정팬티 12종</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>주방</t>
+          <t>속옷</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>208000</v>
+        <v>39900</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>밥솥</t>
+          <t>팬티</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>전기밥솥</t>
+          <t>보정속옷</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>주방가전</t>
+          <t>여성언더웨어/잠옷</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>디지털/가전</t>
+          <t>패션의류</t>
         </is>
       </c>
       <c r="K64" t="n">
-        <v>6139188.009263638</v>
+        <v>6141521.035449884</v>
       </c>
     </row>
     <row r="65">
@@ -3463,46 +3463,46 @@
         <v>43986.66666666666</v>
       </c>
       <c r="B65" t="n">
-        <v>100108</v>
+        <v>100514</v>
       </c>
       <c r="C65" t="n">
-        <v>200300</v>
+        <v>201578</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>르까프 여성 썸머 쿨카라 티셔츠 5종</t>
+          <t>해초미인슬림다시마국수세트25인분</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>의류</t>
+          <t>농수축</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>29900</v>
+        <v>39900</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>티셔츠</t>
+          <t>도가니탕</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>등산의류</t>
+          <t>면류</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>등산</t>
+          <t>가공식품</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>스포츠/레저</t>
+          <t>식품</t>
         </is>
       </c>
       <c r="K65" t="n">
-        <v>3933971.431901847</v>
+        <v>14666290.00159763</v>
       </c>
     </row>
     <row r="66">
@@ -3510,46 +3510,46 @@
         <v>43986.70833333334</v>
       </c>
       <c r="B66" t="n">
-        <v>100036</v>
+        <v>100599</v>
       </c>
       <c r="C66" t="n">
-        <v>200058</v>
+        <v>201882</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>구찌 GG 울 실크 스카프</t>
+          <t>푸마 순면 100% 언더셔츠 7종 데일리 패키지(2차)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>잡화</t>
+          <t>속옷</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>390000</v>
+        <v>79000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>머플러</t>
+          <t>이너웨어</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>스카프</t>
+          <t>등산의류</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>패션소품</t>
+          <t>등산</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>스포츠/레저</t>
         </is>
       </c>
       <c r="K66" t="n">
-        <v>3628727.835862921</v>
+        <v>11390165.59013832</v>
       </c>
     </row>
     <row r="67">
@@ -3557,46 +3557,46 @@
         <v>43986.79166666666</v>
       </c>
       <c r="B67" t="n">
-        <v>100575</v>
+        <v>100416</v>
       </c>
       <c r="C67" t="n">
-        <v>201697</v>
+        <v>201316</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>무이자 삼성 UHDTV 55형 KU55UT7000FXKR+사운드바HW-T450</t>
+          <t>코몽트 남성 반팔 티셔츠 8종(시즌2)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>가전</t>
+          <t>의류</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1170000</v>
+        <v>39900</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>티셔츠</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>티셔츠</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>영상가전</t>
+          <t>남성의류</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>디지털/가전</t>
+          <t>패션의류</t>
         </is>
       </c>
       <c r="K67" t="n">
-        <v>10435017.39010743</v>
+        <v>6141521.035449884</v>
       </c>
     </row>
     <row r="68">
@@ -3604,46 +3604,46 @@
         <v>43986.83333333334</v>
       </c>
       <c r="B68" t="n">
-        <v>100150</v>
+        <v>100036</v>
       </c>
       <c r="C68" t="n">
-        <v>200426</v>
+        <v>200058</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LG전자 통돌이 세탁기 TR14WK1(화이트)</t>
+          <t>구찌 GG 울 실크 스카프</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>가전</t>
+          <t>잡화</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>499900</v>
+        <v>390000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>세탁기</t>
+          <t>머플러</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>세탁기</t>
+          <t>스카프</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>생활가전</t>
+          <t>패션소품</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>디지털/가전</t>
+          <t>패션잡화</t>
         </is>
       </c>
       <c r="K68" t="n">
-        <v>10435017.39010743</v>
+        <v>3633352.700177425</v>
       </c>
     </row>
     <row r="69">
@@ -3651,46 +3651,46 @@
         <v>43986.875</v>
       </c>
       <c r="B69" t="n">
-        <v>100726</v>
+        <v>100150</v>
       </c>
       <c r="C69" t="n">
-        <v>202120</v>
+        <v>200426</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>자연감성 남성 드로즈+반팔상하세트</t>
+          <t>LG전자 통돌이 세탁기 TR14WK1(화이트)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>속옷</t>
+          <t>가전</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>69900</v>
+        <v>499900</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>드로즈</t>
+          <t>세탁기</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>팬티</t>
+          <t>세탁기</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>남성언더웨어/잠옷</t>
+          <t>생활가전</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>패션의류</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="K69" t="n">
-        <v>19374507.65226119</v>
+        <v>10242751.84576735</v>
       </c>
     </row>
     <row r="70">
@@ -3698,46 +3698,46 @@
         <v>43986.91666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>100068</v>
+        <v>100322</v>
       </c>
       <c r="C70" t="n">
-        <v>200187</v>
+        <v>201024</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>캐리어 에어컨 AMC16VA2SAW</t>
+          <t>피시원 국내산 손질 갑오징어 9팩</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>가전</t>
+          <t>농수축</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1899000</v>
+        <v>49900</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>벽걸이에어컨</t>
+          <t>오징어</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>에어컨</t>
+          <t>해산물/어패류</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>계절가전</t>
+          <t>수산</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>디지털/가전</t>
+          <t>식품</t>
         </is>
       </c>
       <c r="K70" t="n">
-        <v>3628727.835862921</v>
+        <v>11390165.59013832</v>
       </c>
     </row>
     <row r="71">
@@ -3745,46 +3745,46 @@
         <v>43986.95833333334</v>
       </c>
       <c r="B71" t="n">
-        <v>100322</v>
+        <v>100148</v>
       </c>
       <c r="C71" t="n">
-        <v>201024</v>
+        <v>200415</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>피시원 국내산 손질 갑오징어 9팩</t>
+          <t>LG 울트라HD TV AI ThinQ(인공지능 씽큐) 55형 55UN7850KNA</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>농수축</t>
+          <t>가전</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>49900</v>
+        <v>1340000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>오징어</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>해산물/어패류</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>수산</t>
+          <t>영상가전</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>식품</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="K71" t="n">
-        <v>11283107.08396966</v>
+        <v>12301330.29640026</v>
       </c>
     </row>
     <row r="72">
@@ -3831,7 +3831,7 @@
         </is>
       </c>
       <c r="K72" t="n">
-        <v>6353551.387649458</v>
+        <v>6693707.488133906</v>
       </c>
     </row>
     <row r="73">
@@ -3878,7 +3878,7 @@
         </is>
       </c>
       <c r="K73" t="n">
-        <v>3662899.061782759</v>
+        <v>3633352.700177425</v>
       </c>
     </row>
     <row r="74">
@@ -3886,46 +3886,46 @@
         <v>43987.29166666666</v>
       </c>
       <c r="B74" t="n">
-        <v>100037</v>
+        <v>100575</v>
       </c>
       <c r="C74" t="n">
-        <v>200059</v>
+        <v>201697</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>구찌 NEW 럭셔리스타 선글라스 GG0232SK</t>
+          <t>무이자 삼성 UHDTV 55형 KU55UT7000FXKR+사운드바HW-T450</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>잡화</t>
+          <t>가전</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>158000</v>
+        <v>1170000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>선글라스</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>선글라스</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>선글라스/안경테</t>
+          <t>영상가전</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="K74" t="n">
-        <v>3933971.431901847</v>
+        <v>10242751.84576735</v>
       </c>
     </row>
     <row r="75">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="K75" t="n">
-        <v>3933971.431901847</v>
+        <v>3947175.869566873</v>
       </c>
     </row>
     <row r="76">
@@ -3980,46 +3980,46 @@
         <v>43987.375</v>
       </c>
       <c r="B76" t="n">
-        <v>100599</v>
+        <v>100205</v>
       </c>
       <c r="C76" t="n">
-        <v>201882</v>
+        <v>200723</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>푸마 순면 100% 언더셔츠 7종 데일리 패키지(2차)</t>
+          <t>보루네오 델루나 유로탑 슬라이딩 LED침대 슈퍼싱글</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>속옷</t>
+          <t>가구</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>79000</v>
+        <v>548000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>이너웨어</t>
+          <t>침대</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>등산의류</t>
+          <t>침대</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>등산</t>
+          <t>침실가구</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>스포츠/레저</t>
+          <t>가구/인테리어</t>
         </is>
       </c>
       <c r="K76" t="n">
-        <v>11283107.08396966</v>
+        <v>3947175.869566873</v>
       </c>
     </row>
     <row r="77">
@@ -4027,46 +4027,46 @@
         <v>43987.41666666666</v>
       </c>
       <c r="B77" t="n">
-        <v>100537</v>
+        <v>100593</v>
       </c>
       <c r="C77" t="n">
-        <v>201616</v>
+        <v>201812</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>[기간]제주바다자연산돔39마리</t>
+          <t>신일써큘레이터 스탠드 블랙(SIF-R09DBK)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>농수축</t>
+          <t>생활용품</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>39900</v>
+        <v>148000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>갈치</t>
+          <t>선풍기</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>생선</t>
+          <t>공기정화기</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>수산</t>
+          <t>계절가전</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>식품</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="K77" t="n">
-        <v>19135049.26973704</v>
+        <v>3947175.869566873</v>
       </c>
     </row>
     <row r="78">
@@ -4074,19 +4074,19 @@
         <v>43987.45833333334</v>
       </c>
       <c r="B78" t="n">
-        <v>100262</v>
+        <v>100650</v>
       </c>
       <c r="C78" t="n">
-        <v>200876</v>
+        <v>201971</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>더블모 어성초 샴푸</t>
+          <t>잭필드 남성  반팔셔츠 4종</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>이미용</t>
+          <t>의류</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4094,26 +4094,26 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>샴푸</t>
+          <t>셔츠</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>샴푸</t>
+          <t>티셔츠</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>헤어케어</t>
+          <t>남성의류</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>화장품/미용</t>
+          <t>패션의류</t>
         </is>
       </c>
       <c r="K78" t="n">
-        <v>13449885.3127105</v>
+        <v>18556160.50059947</v>
       </c>
     </row>
     <row r="79">
@@ -4121,14 +4121,14 @@
         <v>43987.54166666666</v>
       </c>
       <c r="B79" t="n">
-        <v>100514</v>
+        <v>100322</v>
       </c>
       <c r="C79" t="n">
-        <v>201578</v>
+        <v>201024</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>해초미인슬림다시마국수세트25인분</t>
+          <t>피시원 국내산 손질 갑오징어 9팩</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4137,21 +4137,21 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>39900</v>
+        <v>49900</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>도가니탕</t>
+          <t>오징어</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>면류</t>
+          <t>해산물/어패류</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>가공식품</t>
+          <t>수산</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4160,7 +4160,7 @@
         </is>
       </c>
       <c r="K79" t="n">
-        <v>14288154.42584603</v>
+        <v>12385982.19749275</v>
       </c>
     </row>
     <row r="80">
@@ -4168,46 +4168,46 @@
         <v>43987.58333333334</v>
       </c>
       <c r="B80" t="n">
-        <v>100327</v>
+        <v>100150</v>
       </c>
       <c r="C80" t="n">
-        <v>201033</v>
+        <v>200426</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>[VONIN]보닌 남성기초세트(워터로션)</t>
+          <t>LG전자 통돌이 세탁기 TR14WK1(화이트)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>이미용</t>
+          <t>가전</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>54000</v>
+        <v>499900</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>남성기초</t>
+          <t>세탁기</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>남성화장품세트</t>
+          <t>세탁기</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>남성화장품</t>
+          <t>생활가전</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>화장품/미용</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="K80" t="n">
-        <v>3628727.835862921</v>
+        <v>17754823.9756018</v>
       </c>
     </row>
     <row r="81">
@@ -4215,46 +4215,46 @@
         <v>43987.625</v>
       </c>
       <c r="B81" t="n">
-        <v>100105</v>
+        <v>100037</v>
       </c>
       <c r="C81" t="n">
-        <v>200289</v>
+        <v>200059</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>지나송 로사 웨딩스타일 암막 이중커튼(대형)</t>
+          <t>구찌 NEW 럭셔리스타 선글라스 GG0232SK</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>침구</t>
+          <t>잡화</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>119000</v>
+        <v>158000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>침구세트</t>
+          <t>선글라스</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>커튼</t>
+          <t>선글라스</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>커튼/블라인드</t>
+          <t>선글라스/안경테</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>가구/인테리어</t>
+          <t>패션잡화</t>
         </is>
       </c>
       <c r="K81" t="n">
-        <v>21981616.98458571</v>
+        <v>3947175.869566873</v>
       </c>
     </row>
     <row r="82">
@@ -4262,46 +4262,46 @@
         <v>43987.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>100155</v>
+        <v>100253</v>
       </c>
       <c r="C82" t="n">
-        <v>200486</v>
+        <v>200863</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>무이자 LG전자 매직스페이스 냉장고</t>
+          <t>2020 안동간고등어 20팩</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>가전</t>
+          <t>농수축</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1499000</v>
+        <v>30900</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>냉장고</t>
+          <t>간고등어</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>냉장고</t>
+          <t>생선</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>주방가전</t>
+          <t>수산</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>디지털/가전</t>
+          <t>식품</t>
         </is>
       </c>
       <c r="K82" t="n">
-        <v>10472886.92609781</v>
+        <v>18556160.50059947</v>
       </c>
     </row>
     <row r="83">
@@ -4309,46 +4309,46 @@
         <v>43987.70833333334</v>
       </c>
       <c r="B83" t="n">
-        <v>100148</v>
+        <v>100416</v>
       </c>
       <c r="C83" t="n">
-        <v>200415</v>
+        <v>201319</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>LG 울트라HD TV AI ThinQ(인공지능 씽큐) 55형 55UN7850KNA</t>
+          <t>코몽트 남성 티셔츠 8종(시즌1)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>가전</t>
+          <t>의류</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1340000</v>
+        <v>39900</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>티셔츠</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>티셔츠</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>영상가전</t>
+          <t>남성의류</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>디지털/가전</t>
+          <t>패션의류</t>
         </is>
       </c>
       <c r="K83" t="n">
-        <v>11615600.23721671</v>
+        <v>12403519.97723914</v>
       </c>
     </row>
     <row r="84">
@@ -4356,37 +4356,37 @@
         <v>43987.75</v>
       </c>
       <c r="B84" t="n">
-        <v>100593</v>
+        <v>100428</v>
       </c>
       <c r="C84" t="n">
-        <v>201812</v>
+        <v>201341</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>신일써큘레이터 스탠드 블랙(SIF-R09DBK)</t>
+          <t>프로피쿡 스퀘어 에어프라이어 5.5L (종이호일)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>생활용품</t>
+          <t>주방</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>148000</v>
+        <v>89000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>선풍기</t>
+          <t>에어프라이어</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>공기정화기</t>
+          <t>에어프라이어</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>계절가전</t>
+          <t>주방가전</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4395,7 +4395,7 @@
         </is>
       </c>
       <c r="K84" t="n">
-        <v>4042311.717220909</v>
+        <v>18574460.50797002</v>
       </c>
     </row>
     <row r="85">
@@ -4403,46 +4403,46 @@
         <v>43987.79166666666</v>
       </c>
       <c r="B85" t="n">
-        <v>100205</v>
+        <v>100039</v>
       </c>
       <c r="C85" t="n">
-        <v>200723</v>
+        <v>200072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>보루네오 델루나 유로탑 슬라이딩 LED침대 슈퍼싱글</t>
+          <t>버버리 엘모어 체크 장지갑</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>가구</t>
+          <t>잡화</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>548000</v>
+        <v>690000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>침대</t>
+          <t>지갑</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>침대</t>
+          <t>여성지갑</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>침실가구</t>
+          <t>지갑</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>가구/인테리어</t>
+          <t>패션잡화</t>
         </is>
       </c>
       <c r="K85" t="n">
-        <v>3933971.431901847</v>
+        <v>21574060.49834915</v>
       </c>
     </row>
     <row r="86">
@@ -4450,46 +4450,46 @@
         <v>43987.83333333334</v>
       </c>
       <c r="B86" t="n">
-        <v>100253</v>
+        <v>100726</v>
       </c>
       <c r="C86" t="n">
-        <v>200863</v>
+        <v>202120</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2020 안동간고등어 20팩</t>
+          <t>자연감성 남성 드로즈+반팔상하세트</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>농수축</t>
+          <t>속옷</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>30900</v>
+        <v>69900</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>간고등어</t>
+          <t>드로즈</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>생선</t>
+          <t>팬티</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>수산</t>
+          <t>남성언더웨어/잠옷</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>식품</t>
+          <t>패션의류</t>
         </is>
       </c>
       <c r="K86" t="n">
-        <v>16868691.33232596</v>
+        <v>21449075.4510777</v>
       </c>
     </row>
     <row r="87">
@@ -4536,7 +4536,7 @@
         </is>
       </c>
       <c r="K87" t="n">
-        <v>14043567.09619204</v>
+        <v>14474643.51892574</v>
       </c>
     </row>
     <row r="88">
@@ -4544,46 +4544,46 @@
         <v>43987.91666666666</v>
       </c>
       <c r="B88" t="n">
-        <v>100039</v>
+        <v>100785</v>
       </c>
       <c r="C88" t="n">
-        <v>200072</v>
+        <v>202296</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>버버리 엘모어 체크 장지갑</t>
+          <t>전철우냉면25인분</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>잡화</t>
+          <t>농수축</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>690000</v>
+        <v>40900</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>지갑</t>
+          <t>도가니탕</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>여성지갑</t>
+          <t>면류</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>지갑</t>
+          <t>가공식품</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>식품</t>
         </is>
       </c>
       <c r="K88" t="n">
-        <v>19386559.15736945</v>
+        <v>13497109.69355115</v>
       </c>
     </row>
     <row r="89">
@@ -4591,46 +4591,46 @@
         <v>43988</v>
       </c>
       <c r="B89" t="n">
-        <v>100773</v>
+        <v>100012</v>
       </c>
       <c r="C89" t="n">
-        <v>202259</v>
+        <v>200020</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>엘렌실라 그린 에너지 썬스틱(6+박스마스크)</t>
+          <t>AAC의 별미김치 3종(v2)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>이미용</t>
+          <t>농수축</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>39900</v>
+        <v>29900</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>선스틱</t>
+          <t>김치</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>선스틱</t>
+          <t>갓김치</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>선케어</t>
+          <t>김치</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>화장품/미용</t>
+          <t>식품</t>
         </is>
       </c>
       <c r="K89" t="n">
-        <v>6093040.561940127</v>
+        <v>3633352.700177425</v>
       </c>
     </row>
     <row r="90">
@@ -4677,7 +4677,7 @@
         </is>
       </c>
       <c r="K90" t="n">
-        <v>4388894.02665027</v>
+        <v>4377679.595575148</v>
       </c>
     </row>
     <row r="91">
@@ -4685,46 +4685,46 @@
         <v>43988.25</v>
       </c>
       <c r="B91" t="n">
-        <v>100012</v>
+        <v>100590</v>
       </c>
       <c r="C91" t="n">
-        <v>200020</v>
+        <v>201808</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>AAC의 별미김치 3종(v2)</t>
+          <t xml:space="preserve"> 신일 창문형 에어컨</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>농수축</t>
+          <t>생활용품</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>29900</v>
+        <v>599000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>김치</t>
+          <t>벽걸이에어컨</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>갓김치</t>
+          <t>에어컨</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>김치</t>
+          <t>계절가전</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>식품</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="K91" t="n">
-        <v>3628727.835862921</v>
+        <v>3633352.700177425</v>
       </c>
     </row>
     <row r="92">
@@ -4732,14 +4732,14 @@
         <v>43988.29166666666</v>
       </c>
       <c r="B92" t="n">
-        <v>100381</v>
+        <v>100773</v>
       </c>
       <c r="C92" t="n">
-        <v>201247</v>
+        <v>202259</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>바비리스 퍼펙트 볼륨스타일러</t>
+          <t>엘렌실라 그린 에너지 썬스틱(6+박스마스크)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4748,21 +4748,21 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>59000</v>
+        <v>39900</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>헤어에센스</t>
+          <t>선스틱</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>헤어스프레이</t>
+          <t>선스틱</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>헤어스타일링</t>
+          <t>선케어</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="K92" t="n">
-        <v>13959497.17003827</v>
+        <v>6104082.107581626</v>
       </c>
     </row>
     <row r="93">
@@ -4779,46 +4779,46 @@
         <v>43988.33333333334</v>
       </c>
       <c r="B93" t="n">
-        <v>100785</v>
+        <v>100205</v>
       </c>
       <c r="C93" t="n">
-        <v>202296</v>
+        <v>200723</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>전철우냉면25인분</t>
+          <t>보루네오 델루나 유로탑 슬라이딩 LED침대 슈퍼싱글</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>농수축</t>
+          <t>가구</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>40900</v>
+        <v>548000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>도가니탕</t>
+          <t>침대</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>면류</t>
+          <t>침대</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>가공식품</t>
+          <t>침실가구</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>식품</t>
+          <t>가구/인테리어</t>
         </is>
       </c>
       <c r="K93" t="n">
-        <v>13459071.72301405</v>
+        <v>9342410.637854664</v>
       </c>
     </row>
     <row r="94">
@@ -4826,46 +4826,46 @@
         <v>43988.375</v>
       </c>
       <c r="B94" t="n">
-        <v>100559</v>
+        <v>100155</v>
       </c>
       <c r="C94" t="n">
-        <v>201656</v>
+        <v>200486</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>제스프리 골드키위 48과</t>
+          <t>무이자 LG전자 매직스페이스 냉장고</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>농수축</t>
+          <t>가전</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>40900</v>
+        <v>1499000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>사과</t>
+          <t>냉장고</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>과일</t>
+          <t>냉장고</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>농산물</t>
+          <t>주방가전</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>식품</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="K94" t="n">
-        <v>13703278.91557364</v>
+        <v>10242751.84576735</v>
       </c>
     </row>
     <row r="95">
@@ -4873,46 +4873,46 @@
         <v>43988.41666666666</v>
       </c>
       <c r="B95" t="n">
-        <v>100800</v>
+        <v>100155</v>
       </c>
       <c r="C95" t="n">
-        <v>202364</v>
+        <v>200486</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>[바다먹자] 국내산 반건조 오징어 7팩 (14미)</t>
+          <t>무이자 LG전자 매직스페이스 냉장고</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>농수축</t>
+          <t>가전</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>39900</v>
+        <v>1499000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>오징어</t>
+          <t>냉장고</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>건어물</t>
+          <t>냉장고</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>수산</t>
+          <t>주방가전</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>식품</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="K95" t="n">
-        <v>11855894.48265181</v>
+        <v>4377679.595575148</v>
       </c>
     </row>
     <row r="96">
@@ -4959,7 +4959,7 @@
         </is>
       </c>
       <c r="K96" t="n">
-        <v>14898783.27846601</v>
+        <v>15805213.54429575</v>
       </c>
     </row>
     <row r="97">
@@ -4967,46 +4967,46 @@
         <v>43988.5</v>
       </c>
       <c r="B97" t="n">
-        <v>100167</v>
+        <v>100290</v>
       </c>
       <c r="C97" t="n">
-        <v>200588</v>
+        <v>202241</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>유귀열의 귀한 갓김치 5kg</t>
+          <t>클라쎄 벽걸이 에어컨 MKRA06DTB</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>농수축</t>
+          <t>가전</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>30900</v>
+        <v>449000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>김치</t>
+          <t>벽걸이에어컨</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>갓김치</t>
+          <t>에어컨</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>김치</t>
+          <t>계절가전</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>식품</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="K97" t="n">
-        <v>14023811.42713575</v>
+        <v>4377679.595575148</v>
       </c>
     </row>
     <row r="98">
@@ -5014,14 +5014,14 @@
         <v>43988.54166666666</v>
       </c>
       <c r="B98" t="n">
-        <v>100331</v>
+        <v>100381</v>
       </c>
       <c r="C98" t="n">
-        <v>201039</v>
+        <v>201247</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>셀럽by재클린 새치컬러염색제 시즌2</t>
+          <t>바비리스 퍼펙트 볼륨스타일러</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5030,7 +5030,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>39800</v>
+        <v>59000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>염색약</t>
+          <t>헤어스프레이</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5053,7 +5053,7 @@
         </is>
       </c>
       <c r="K98" t="n">
-        <v>14023811.42713575</v>
+        <v>14666290.00159763</v>
       </c>
     </row>
     <row r="99">
@@ -5061,46 +5061,46 @@
         <v>43988.58333333334</v>
       </c>
       <c r="B99" t="n">
-        <v>100203</v>
+        <v>100281</v>
       </c>
       <c r="C99" t="n">
-        <v>200689</v>
+        <v>201011</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>(무)[보루네오] 피올레 천연소가죽 소파 3인용</t>
+          <t>에버라스트 스텐다드 드로즈 10+4종(2020)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>가구</t>
+          <t>속옷</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>749000</v>
+        <v>39900</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>소파</t>
+          <t>드로즈</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>소파</t>
+          <t>팬티</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>거실가구</t>
+          <t>남성언더웨어/잠옷</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>가구/인테리어</t>
+          <t>패션의류</t>
         </is>
       </c>
       <c r="K99" t="n">
-        <v>13656579.81919704</v>
+        <v>20893461.55756215</v>
       </c>
     </row>
     <row r="100">
@@ -5108,46 +5108,46 @@
         <v>43988.625</v>
       </c>
       <c r="B100" t="n">
-        <v>100590</v>
+        <v>100559</v>
       </c>
       <c r="C100" t="n">
-        <v>201808</v>
+        <v>201656</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 신일 창문형 에어컨</t>
+          <t>제스프리 골드키위 48과</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>생활용품</t>
+          <t>농수축</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>599000</v>
+        <v>40900</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>벽걸이에어컨</t>
+          <t>사과</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>에어컨</t>
+          <t>과일</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>계절가전</t>
+          <t>농산물</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>디지털/가전</t>
+          <t>식품</t>
         </is>
       </c>
       <c r="K100" t="n">
-        <v>3628727.835862921</v>
+        <v>14406215.38901516</v>
       </c>
     </row>
     <row r="101">
@@ -5155,46 +5155,46 @@
         <v>43988.66666666666</v>
       </c>
       <c r="B101" t="n">
-        <v>100205</v>
+        <v>100329</v>
       </c>
       <c r="C101" t="n">
-        <v>200723</v>
+        <v>201037</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>보루네오 델루나 유로탑 슬라이딩 LED침대 슈퍼싱글</t>
+          <t>LG생활건강 테크 특유취제거 액체세제</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>가구</t>
+          <t>생활용품</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>548000</v>
+        <v>39800</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>침대</t>
+          <t>다퓨저</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>침대</t>
+          <t>세제/세정제</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>침실가구</t>
+          <t>생활용품</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>가구/인테리어</t>
+          <t>생활/건강</t>
         </is>
       </c>
       <c r="K101" t="n">
-        <v>9308103.974499447</v>
+        <v>17983768.9480059</v>
       </c>
     </row>
     <row r="102">
@@ -5202,46 +5202,46 @@
         <v>43988.70833333334</v>
       </c>
       <c r="B102" t="n">
-        <v>100329</v>
+        <v>100621</v>
       </c>
       <c r="C102" t="n">
-        <v>201037</v>
+        <v>201923</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>LG생활건강 테크 특유취제거 액체세제</t>
+          <t>비비고 만두</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>생활용품</t>
+          <t>농수축</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>39800</v>
+        <v>30900</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>다퓨저</t>
+          <t>모시떡</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>세제/세정제</t>
+          <t>떡</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>생활용품</t>
+          <t>가공식품</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>생활/건강</t>
+          <t>식품</t>
         </is>
       </c>
       <c r="K102" t="n">
-        <v>16846304.45030898</v>
+        <v>20255040.66126058</v>
       </c>
     </row>
     <row r="103">
@@ -5249,37 +5249,37 @@
         <v>43988.79166666666</v>
       </c>
       <c r="B103" t="n">
-        <v>100461</v>
+        <v>100424</v>
       </c>
       <c r="C103" t="n">
-        <v>201418</v>
+        <v>201331</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>크리스티나앤코 시스루앙상블</t>
+          <t>프로스펙스 2020 퍼포먼스 드로즈 패키지</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>의류</t>
+          <t>속옷</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>39000</v>
+        <v>49900</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>셔츠</t>
+          <t>드로즈</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>조끼</t>
+          <t>팬티</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>여성의류</t>
+          <t>남성언더웨어/잠옷</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5288,7 +5288,7 @@
         </is>
       </c>
       <c r="K103" t="n">
-        <v>16762069.76771723</v>
+        <v>9342410.637854664</v>
       </c>
     </row>
     <row r="104">
@@ -5296,46 +5296,46 @@
         <v>43988.83333333334</v>
       </c>
       <c r="B104" t="n">
-        <v>100621</v>
+        <v>100148</v>
       </c>
       <c r="C104" t="n">
-        <v>201923</v>
+        <v>200415</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>비비고 만두</t>
+          <t>LG 울트라HD TV AI ThinQ(인공지능 씽큐) 55형 55UN7850KNA</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>농수축</t>
+          <t>가전</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>30900</v>
+        <v>1340000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>모시떡</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>떡</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>가공식품</t>
+          <t>영상가전</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>식품</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="K104" t="n">
-        <v>18885579.70994777</v>
+        <v>13088365.98579193</v>
       </c>
     </row>
     <row r="105">
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="K105" t="n">
-        <v>20771342.68757273</v>
+        <v>20255040.66126058</v>
       </c>
     </row>
     <row r="106">
@@ -5429,7 +5429,7 @@
         </is>
       </c>
       <c r="K106" t="n">
-        <v>19386559.15736945</v>
+        <v>21574060.49834915</v>
       </c>
     </row>
     <row r="107">
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="K107" t="n">
-        <v>18885579.70994777</v>
+        <v>20255040.66126058</v>
       </c>
     </row>
     <row r="108">
@@ -5484,46 +5484,46 @@
         <v>43989</v>
       </c>
       <c r="B108" t="n">
-        <v>100424</v>
+        <v>100537</v>
       </c>
       <c r="C108" t="n">
-        <v>201331</v>
+        <v>201616</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>프로스펙스 2020 퍼포먼스 드로즈 패키지</t>
+          <t>[기간]제주바다자연산돔39마리</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>속옷</t>
+          <t>농수축</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>49900</v>
+        <v>39900</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>드로즈</t>
+          <t>갈치</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>팬티</t>
+          <t>생선</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>남성언더웨어/잠옷</t>
+          <t>수산</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>패션의류</t>
+          <t>식품</t>
         </is>
       </c>
       <c r="K108" t="n">
-        <v>9308103.974499447</v>
+        <v>18556160.50059947</v>
       </c>
     </row>
     <row r="109">
@@ -5531,46 +5531,46 @@
         <v>43989.04166666666</v>
       </c>
       <c r="B109" t="n">
-        <v>100148</v>
+        <v>100348</v>
       </c>
       <c r="C109" t="n">
-        <v>200415</v>
+        <v>201091</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>LG 울트라HD TV AI ThinQ(인공지능 씽큐) 55형 55UN7850KNA</t>
+          <t>벨레즈온 심리스 원피스 4종 패키지</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>가전</t>
+          <t>속옷</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1340000</v>
+        <v>59900</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>이너웨어</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>원피스</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>영상가전</t>
+          <t>여성의류</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>디지털/가전</t>
+          <t>패션의류</t>
         </is>
       </c>
       <c r="K109" t="n">
-        <v>12524426.19534631</v>
+        <v>17798751.01597855</v>
       </c>
     </row>
     <row r="110">
@@ -5578,46 +5578,46 @@
         <v>43989.25</v>
       </c>
       <c r="B110" t="n">
-        <v>100155</v>
+        <v>100080</v>
       </c>
       <c r="C110" t="n">
-        <v>200486</v>
+        <v>200217</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>무이자 LG전자 매직스페이스 냉장고</t>
+          <t>아키 라이크라 릴렉스 보정브라 패키지(뉴아키28차)</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>가전</t>
+          <t>속옷</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1499000</v>
+        <v>99900</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>냉장고</t>
+          <t>브라</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>냉장고</t>
+          <t>보정속옷</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>주방가전</t>
+          <t>여성언더웨어/잠옷</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>디지털/가전</t>
+          <t>패션의류</t>
         </is>
       </c>
       <c r="K110" t="n">
-        <v>4388894.02665027</v>
+        <v>3862909.696079751</v>
       </c>
     </row>
     <row r="111">
@@ -5625,46 +5625,46 @@
         <v>43989.29166666666</v>
       </c>
       <c r="B111" t="n">
-        <v>100290</v>
+        <v>100012</v>
       </c>
       <c r="C111" t="n">
-        <v>202241</v>
+        <v>200016</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>클라쎄 벽걸이 에어컨 MKRA06DTB</t>
+          <t>AAC 삼채포기김치 10kg</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>가전</t>
+          <t>농수축</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>449000</v>
+        <v>40900</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>벽걸이에어컨</t>
+          <t>김치</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>에어컨</t>
+          <t>포기김치</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>계절가전</t>
+          <t>김치</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>디지털/가전</t>
+          <t>식품</t>
         </is>
       </c>
       <c r="K111" t="n">
-        <v>4388894.02665027</v>
+        <v>3862909.696079751</v>
       </c>
     </row>
     <row r="112">
@@ -5672,46 +5672,46 @@
         <v>43989.33333333334</v>
       </c>
       <c r="B112" t="n">
-        <v>100353</v>
+        <v>100255</v>
       </c>
       <c r="C112" t="n">
-        <v>201130</v>
+        <v>200867</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>마르엘라로사티 린넨 베스트 세트[3월]</t>
+          <t>한일 대용량 레드 스텐 분쇄믹서기</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>의류</t>
+          <t>주방</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>39900</v>
+        <v>119800</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>베스트</t>
+          <t>믹서기</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>조끼</t>
+          <t>믹서기</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>여성의류</t>
+          <t>주방가전</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>패션의류</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="K112" t="n">
-        <v>13459071.72301405</v>
+        <v>13497109.69355115</v>
       </c>
     </row>
     <row r="113">
@@ -5719,46 +5719,46 @@
         <v>43989.375</v>
       </c>
       <c r="B113" t="n">
-        <v>100155</v>
+        <v>100099</v>
       </c>
       <c r="C113" t="n">
-        <v>200486</v>
+        <v>200272</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>무이자 LG전자 매직스페이스 냉장고</t>
+          <t>[무이자]라쉬반 FC바로셀로나 드로즈 패키지</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>가전</t>
+          <t>속옷</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1499000</v>
+        <v>119000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>냉장고</t>
+          <t>드로즈</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>냉장고</t>
+          <t>팬티</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>주방가전</t>
+          <t>남성언더웨어/잠옷</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>디지털/가전</t>
+          <t>패션의류</t>
         </is>
       </c>
       <c r="K113" t="n">
-        <v>12524426.19534631</v>
+        <v>18556160.50059947</v>
       </c>
     </row>
     <row r="114">
@@ -5766,46 +5766,46 @@
         <v>43989.41666666666</v>
       </c>
       <c r="B114" t="n">
-        <v>100416</v>
+        <v>100105</v>
       </c>
       <c r="C114" t="n">
-        <v>201319</v>
+        <v>200289</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>코몽트 남성 티셔츠 8종(시즌1)</t>
+          <t>지나송 로사 웨딩스타일 암막 이중커튼(대형)</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>의류</t>
+          <t>침구</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>39900</v>
+        <v>119000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>티셔츠</t>
+          <t>침구세트</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>티셔츠</t>
+          <t>커튼</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>남성의류</t>
+          <t>커튼/블라인드</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>패션의류</t>
+          <t>가구/인테리어</t>
         </is>
       </c>
       <c r="K114" t="n">
-        <v>12130132.50278832</v>
+        <v>21603484.41542626</v>
       </c>
     </row>
     <row r="115">
@@ -5813,14 +5813,14 @@
         <v>43989.45833333334</v>
       </c>
       <c r="B115" t="n">
-        <v>100348</v>
+        <v>100384</v>
       </c>
       <c r="C115" t="n">
-        <v>201091</v>
+        <v>201252</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>벨레즈온 심리스 원피스 4종 패키지</t>
+          <t>보디가드 남성 트렁크8종</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5829,21 +5829,21 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>59900</v>
+        <v>49900</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>이너웨어</t>
+          <t>트렁크</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>원피스</t>
+          <t>팬티</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>여성의류</t>
+          <t>남성언더웨어/잠옷</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="K115" t="n">
-        <v>18651408.58150931</v>
+        <v>14636866.08452052</v>
       </c>
     </row>
     <row r="116">
@@ -5860,46 +5860,46 @@
         <v>43989.5</v>
       </c>
       <c r="B116" t="n">
-        <v>100526</v>
+        <v>100301</v>
       </c>
       <c r="C116" t="n">
-        <v>201596</v>
+        <v>200966</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>소노비 줄리엣 소가죽 토트백 1종+투숄더 버킷백 1종</t>
+          <t>동해안 반건조 가자미 20마리</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>잡화</t>
+          <t>농수축</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>119000</v>
+        <v>40900</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>토트백</t>
+          <t>과메기</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>토트백</t>
+          <t>건어물</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>여성가방</t>
+          <t>수산</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>식품</t>
         </is>
       </c>
       <c r="K116" t="n">
-        <v>14034380.68588849</v>
+        <v>10242751.84576735</v>
       </c>
     </row>
     <row r="117">
@@ -5907,46 +5907,46 @@
         <v>43989.54166666666</v>
       </c>
       <c r="B117" t="n">
-        <v>100255</v>
+        <v>100167</v>
       </c>
       <c r="C117" t="n">
-        <v>200867</v>
+        <v>200588</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>한일 대용량 레드 스텐 분쇄믹서기</t>
+          <t>유귀열의 귀한 갓김치 5kg</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>주방</t>
+          <t>농수축</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>119800</v>
+        <v>30900</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>믹서기</t>
+          <t>김치</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>믹서기</t>
+          <t>갓김치</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>주방가전</t>
+          <t>김치</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>디지털/가전</t>
+          <t>식품</t>
         </is>
       </c>
       <c r="K117" t="n">
-        <v>13449885.3127105</v>
+        <v>14636866.08452052</v>
       </c>
     </row>
     <row r="118">
@@ -5954,46 +5954,46 @@
         <v>43989.58333333334</v>
       </c>
       <c r="B118" t="n">
-        <v>100099</v>
+        <v>100155</v>
       </c>
       <c r="C118" t="n">
-        <v>200272</v>
+        <v>200486</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>[무이자]라쉬반 FC바로셀로나 드로즈 패키지</t>
+          <t>무이자 LG전자 매직스페이스 냉장고</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>속옷</t>
+          <t>가전</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>119000</v>
+        <v>1499000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>드로즈</t>
+          <t>냉장고</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>팬티</t>
+          <t>냉장고</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>남성언더웨어/잠옷</t>
+          <t>주방가전</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>패션의류</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="K118" t="n">
-        <v>19135049.26973704</v>
+        <v>17798751.01597855</v>
       </c>
     </row>
     <row r="119">
@@ -6001,46 +6001,46 @@
         <v>43989.66666666666</v>
       </c>
       <c r="B119" t="n">
-        <v>100384</v>
+        <v>100331</v>
       </c>
       <c r="C119" t="n">
-        <v>201252</v>
+        <v>201039</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>보디가드 남성 트렁크8종</t>
+          <t>셀럽by재클린 새치컬러염색제 시즌2</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>속옷</t>
+          <t>이미용</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>49900</v>
+        <v>39800</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>트렁크</t>
+          <t>헤어에센스</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>팬티</t>
+          <t>염색약</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>남성언더웨어/잠옷</t>
+          <t>헤어스타일링</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>패션의류</t>
+          <t>화장품/미용</t>
         </is>
       </c>
       <c r="K119" t="n">
-        <v>14023811.42713575</v>
+        <v>14636866.08452052</v>
       </c>
     </row>
     <row r="120">
@@ -6048,37 +6048,37 @@
         <v>43989.70833333334</v>
       </c>
       <c r="B120" t="n">
-        <v>100428</v>
+        <v>100590</v>
       </c>
       <c r="C120" t="n">
-        <v>201341</v>
+        <v>201808</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>프로피쿡 스퀘어 에어프라이어 5.5L (종이호일)</t>
+          <t xml:space="preserve"> 신일 창문형 에어컨</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>주방</t>
+          <t>생활용품</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>89000</v>
+        <v>599000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>에어프라이어</t>
+          <t>벽걸이에어컨</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>에어프라이어</t>
+          <t>에어컨</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>주방가전</t>
+          <t>계절가전</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="K120" t="n">
-        <v>19001623.60403917</v>
+        <v>18556160.50059947</v>
       </c>
     </row>
     <row r="121">
@@ -6095,46 +6095,46 @@
         <v>43989.75</v>
       </c>
       <c r="B121" t="n">
-        <v>100155</v>
+        <v>100461</v>
       </c>
       <c r="C121" t="n">
-        <v>200486</v>
+        <v>201418</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>무이자 LG전자 매직스페이스 냉장고</t>
+          <t>크리스티나앤코 시스루앙상블</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>가전</t>
+          <t>의류</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1499000</v>
+        <v>39000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>냉장고</t>
+          <t>셔츠</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>냉장고</t>
+          <t>조끼</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>주방가전</t>
+          <t>여성의류</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>디지털/가전</t>
+          <t>패션의류</t>
         </is>
       </c>
       <c r="K121" t="n">
-        <v>18651408.58150931</v>
+        <v>17769327.09890144</v>
       </c>
     </row>
     <row r="122">
@@ -6142,46 +6142,46 @@
         <v>43989.79166666666</v>
       </c>
       <c r="B122" t="n">
-        <v>100730</v>
+        <v>100155</v>
       </c>
       <c r="C122" t="n">
-        <v>202128</v>
+        <v>200486</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>월드컵 S/S 남성 에어러닝화+패션슬리퍼</t>
+          <t>무이자 LG전자 매직스페이스 냉장고</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>잡화</t>
+          <t>가전</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>29800</v>
+        <v>1499000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>신발</t>
+          <t>냉장고</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>운동화</t>
+          <t>냉장고</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>남성신발</t>
+          <t>주방가전</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="K122" t="n">
-        <v>21481741.34659669</v>
+        <v>13088365.98579193</v>
       </c>
     </row>
     <row r="123">
@@ -6189,46 +6189,46 @@
         <v>43989.83333333334</v>
       </c>
       <c r="B123" t="n">
-        <v>100150</v>
+        <v>100526</v>
       </c>
       <c r="C123" t="n">
-        <v>200426</v>
+        <v>201596</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>LG전자 통돌이 세탁기 TR14WK1(화이트)</t>
+          <t>소노비 줄리엣 소가죽 토트백 1종+투숄더 버킷백 1종</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>가전</t>
+          <t>잡화</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>499900</v>
+        <v>119000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>세탁기</t>
+          <t>토트백</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>세탁기</t>
+          <t>토트백</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>생활가전</t>
+          <t>여성가방</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>디지털/가전</t>
+          <t>패션잡화</t>
         </is>
       </c>
       <c r="K123" t="n">
-        <v>16834252.94520071</v>
+        <v>14370683.59379308</v>
       </c>
     </row>
     <row r="124">
@@ -6275,7 +6275,7 @@
         </is>
       </c>
       <c r="K124" t="n">
-        <v>21302382.41292621</v>
+        <v>21603484.41542626</v>
       </c>
     </row>
     <row r="125">
@@ -6283,46 +6283,46 @@
         <v>43989.91666666666</v>
       </c>
       <c r="B125" t="n">
-        <v>100281</v>
+        <v>100203</v>
       </c>
       <c r="C125" t="n">
-        <v>201011</v>
+        <v>200689</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>에버라스트 스텐다드 드로즈 10+4종(2020)</t>
+          <t>(무)[보루네오] 피올레 천연소가죽 소파 3인용</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>속옷</t>
+          <t>가구</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>39900</v>
+        <v>749000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>드로즈</t>
+          <t>소파</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>팬티</t>
+          <t>소파</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>남성언더웨어/잠옷</t>
+          <t>거실가구</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>패션의류</t>
+          <t>가구/인테리어</t>
         </is>
       </c>
       <c r="K125" t="n">
-        <v>21358709.72677321</v>
+        <v>13764705.59109205</v>
       </c>
     </row>
     <row r="126">
@@ -6330,46 +6330,46 @@
         <v>43989.95833333334</v>
       </c>
       <c r="B126" t="n">
-        <v>100590</v>
+        <v>100730</v>
       </c>
       <c r="C126" t="n">
-        <v>201808</v>
+        <v>202128</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 신일 창문형 에어컨</t>
+          <t>월드컵 S/S 남성 에어러닝화+패션슬리퍼</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>생활용품</t>
+          <t>잡화</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>599000</v>
+        <v>29800</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>벽걸이에어컨</t>
+          <t>신발</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>에어컨</t>
+          <t>운동화</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>계절가전</t>
+          <t>남성신발</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>디지털/가전</t>
+          <t>패션잡화</t>
         </is>
       </c>
       <c r="K126" t="n">
-        <v>18422303.57090461</v>
+        <v>20893461.55756215</v>
       </c>
     </row>
   </sheetData>
